--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_172.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_172.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,622 +488,664 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_78</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_120</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2196969696969697</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>jaah_83</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.08664596273291925</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:maj/A', 'A#:min']]</t>
+          <t>[['D:7', 'G:maj', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(7.4, 12.02)]</t>
+          <t>[['D:7', 'G', 'G']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(15.32, 17.86)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+          <t>[('0:00:20.080000', '0:00:22.560000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:06.380000', '0:00:09.890000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_63</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_60</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.07672413793103448</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['C:min/G', 'G:7', 'C:min'], ['C:min/G', 'G', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min'], ['G:min', 'D:maj/G', 'G:min']]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(25.8, 29.46), (14.62, 19.56)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(17.04, 24.52), (6.3, 14.36)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+          <t>[('0:02:01.740000', '0:02:03.780000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:36.320000', '0:00:51.920000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_10</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_54</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1141025641025641</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:maj', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>isophonics_156</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_5</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2176470588235294</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Bb:7', 'Eb']]</t>
+          <t>[['E', 'A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(7.98, 10.54)]</t>
+          <t>[['B', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(33.31, 47.63)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:09.305410', '0:00:13.723731')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:08.291354', '0:00:14.073123')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_160</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_135</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A:7', 'A:(3,5,b7,b9)/G', 'D:min/F']]</t>
-        </is>
+          <t>schubert-winterreise_3</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_2</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2083333333333333</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
+          <t>[['G#:maj', 'C#:maj', 'G#:maj', 'C#:maj', 'G#:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(158.3, 161.56)]</t>
+          <t>[['Bb:maj', 'Eb:maj', 'Bb:maj', 'Eb:maj', 'Bb:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(4.82, 22.08)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:09.640000', '0:00:12.540000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:03:37.493000', '0:03:43.713000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_43</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_167</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2105263157894737</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'E', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_141</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_193</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.09642857142857142</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['G/5', 'C/9', 'G', 'C/5']]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(6.357029, 26.14043)]</t>
+          <t>[['C/G', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(0.727609, 10.72399)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:01:12.640000', '0:01:19.220000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:04:11.500000', '0:04:15.380000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_22</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_132</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.04772727272727272</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['Bb', 'Bb', 'Bb']]</t>
-        </is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_110</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1652173913043478</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['B', 'B', 'B/7']]</t>
+          <t>[['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(66.74, 72.5)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(9.480113, 15.412811)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+          <t>[('0:00:03', '0:00:05.280000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:37.360000', '0:00:44.660000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_103</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_280</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1776960784313726</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_97</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['E', 'B:7', 'E', 'B:7', 'E']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(0.6, 11.32)]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(61.683832, 71.056785)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:02:18.020000', '0:02:22.340000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:01:09.360000', '0:01:13.200000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_296</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G/3', 'G:min/b3', 'D:maj']]</t>
-        </is>
+          <t>isophonics_181</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.4540540540540541</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['E:maj/B', 'E:min/B', 'B:maj']]</t>
+          <t>[['Bb', 'Eb', 'Bb', 'Eb']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(64.294, 67.223)]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(7.02, 13.98)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:01:00.761383', '0:01:11.001383')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:02:22.140000', '0:02:27.860000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_161</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4166666666666667</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(15.94, 24.9)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(6.88, 12.96)]</t>
+          <t>[('0:00:01.600000', '0:00:12.540000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:21.280000', '0:00:41.800000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_7</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.03263106320431161</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'A:min7/C', 'D:7'], ['A:min7/C', 'D:7', 'G:maj'], ['D:7', 'G:maj', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_221</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['Eb', 'F:min7', 'Bb:7'], ['F:min7', 'Bb:7', 'Eb'], ['Bb:7', 'Eb', 'Eb']]</t>
+          <t>[['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(73.16, 77.72), (74.2, 81.18), (6.98, 13.38)]</t>
+          <t>[['C', 'F/5', 'C']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(10.7, 14.24), (8.35, 10.7), (8.94, 11.88)]</t>
+          <t>[('0:01:01.480000', '0:01:03.580000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:05.121000', '0:00:12.601000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_199</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_259</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1277777777777778</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D', 'G', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_48</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_181</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'E']]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(1.159256, 4.874449)]</t>
+          <t>[['D#:maj', 'A#:maj', 'A#:min', 'F:min/C', 'C:7', 'F:min', 'G#:maj', 'G#:min', 'A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj', 'D#:7', 'G#:maj', 'C:(3,5,b7,b9)/G#', 'F:min/G#', 'D#:maj/A#', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(47.187, 57.707)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:36.640000', '0:01:18.160000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:41.140000', '0:01:25.340000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_60</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2598235765838011</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_185</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_94</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(164.36, 206.12)]</t>
+          <t>[['A#:min', 'A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj', 'A#:min', 'F:maj', 'A#:min', 'A#:7', 'D#:min/A#', 'F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min', 'C#:maj/G#', 'D#:min/F#', 'C#:maj/F', 'G#:7', 'C#:maj', 'A#:min', 'A#:7/G#', 'D#:maj/G', 'G#:(3,5,b7,b9)/F#', 'C#:maj/F', 'F:(3,5,b7,b9)/D#', 'F#:(3,5)', 'A#:min/F', 'F:7', 'F#:(3,5)', 'A#:min/F', 'F:7', 'A#:min', 'A#:7', 'D#:maj', 'D#:min', 'A#:maj', 'A#:min/A#', 'F:maj', 'A#:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(103.94, 127.8)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:00.820000', '0:01:47.920000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:02.700000', '0:01:49.500000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.09642857142857142</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>[['F:maj', 'D:7/F#', 'G:min', 'C:7/E', 'F:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(64.08, 70.34)]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(283.3, 287.58)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:01:01.220000', '0:01:07.740000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:01:12.080000', '0:01:19.580000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_56</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1669758812615955</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C', 'C/7']]</t>
-        </is>
+          <t>schubert-winterreise_55</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(12.318208, 18.355396)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(5.78, 11.38)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:05.360000', '0:01:50.760000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:04.760000', '0:01:58.780000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_13</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_95</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.05330188679245283</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Eb', 'Bb:7']]</t>
-        </is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['C', 'C/G', 'G:7']]</t>
+          <t>[['C#:(3,5)', 'F:maj/A', 'A#:maj', 'F:maj/C', 'C:7', 'F:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(28.19, 36.12)]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(225.32, 227.9)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:01:00.620000', '0:01:06.360000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:01:01.540000', '0:01:07.900000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_185</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_157</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.217948717948718</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['B:7', 'E:maj/B', 'E:min/B', 'B:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['E:7/3', 'A', 'A:min/b3', 'E']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(3.52, 13.74)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(21.908049, 27.840748)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
